--- a/Bot_screening/constraints.xlsx
+++ b/Bot_screening/constraints.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,261 +534,351 @@
           <t>19d</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>20d</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>21d</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>22d</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>23d</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>24d</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>25d</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>26d</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>27d</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>28d</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>29d</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>30d</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>binancecoin</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04939204506423032</v>
+        <v>0.02950819672131148</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05523116026653849</v>
+        <v>0.01967213114754111</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06361200796867485</v>
+        <v>0.07213114754098358</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.05351377344233016</v>
+        <v>0.05245901639344266</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04430858006457373</v>
+        <v>0.07213114754098358</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.04286597513223887</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03771381465961399</v>
+        <v>0.09508196721311477</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04039293810537885</v>
+        <v>0.03606557377049179</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.04018685168647389</v>
+        <v>0.04918032786885259</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.034416431957134</v>
+        <v>0.0557377049180329</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.02747818918733263</v>
+        <v>0.01967213114754111</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.03050078999793913</v>
+        <v>0.01639344262295086</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.01174692587758474</v>
+        <v>0.02295081967213117</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.002060864189049977</v>
+        <v>-0.01311475409836062</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02067733736346769</v>
+        <v>0.003278688524590244</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.004533901215909878</v>
+        <v>0.003278688524590244</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001992168716081577</v>
+        <v>-0.01311475409836062</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01291474891804635</v>
+        <v>-0.01967213114754093</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.008174761283231507</v>
+        <v>-0.01639344262295086</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.0426229508196721</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.06229508196721303</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.0426229508196721</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.00655737704918031</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.02295081967213117</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.03934426229508203</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.02295081967213117</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.02295081967213117</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.08524590163934438</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.1049180327868853</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.1081967213114754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ripple</t>
+          <t>binancecoin</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.05555555555555559</v>
+        <v>0.005299978800084829</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.05555555555555559</v>
+        <v>-0.01243728358419905</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05555555555555559</v>
+        <v>-0.01173061974418778</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05555555555555559</v>
+        <v>-0.01038795844816618</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05555555555555559</v>
+        <v>-0.005158646032082549</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05555555555555559</v>
+        <v>-0.007278637552116505</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.05555555555555559</v>
+        <v>0.009398629072150338</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05555555555555559</v>
+        <v>0.0004239983040067177</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1111111111111112</v>
+        <v>0.03038654512048617</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1111111111111112</v>
+        <v>0.02869055190445905</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2222222222222222</v>
+        <v>-0.02211857819235395</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2222222222222222</v>
+        <v>-0.02812522083245006</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.03674651968058792</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5555555555555555</v>
+        <v>-0.02635856123242174</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.0168892657762702</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01540527171224657</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01010529291216174</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3888888888888889</v>
+        <v>-0.01286128188820577</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.01264928273620241</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.006713306480107384</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0004239983040067177</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.002685322592042954</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.01660660024026564</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0265705603844251</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.04996113348879933</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.03335453324853369</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.03073987704049181</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.01540527171224644</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02028125220832443</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.03695851883259128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>tether</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09615384615384615</v>
+        <v>0.001848917062863196</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.09615384615384615</v>
+        <v>0.01703645007923939</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1153846153846153</v>
+        <v>0.01347068145800324</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05769230769230767</v>
+        <v>0.02892234548335981</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03846153846153836</v>
+        <v>0.03790279978869519</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01923076923076918</v>
+        <v>0.05309033280507137</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01923076923076918</v>
+        <v>0.05520338087691506</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01923076923076918</v>
+        <v>0.03935552033808776</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.01923076923076918</v>
+        <v>0.04146856840993145</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03846153846153848</v>
+        <v>0.04239302694136304</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01923076923076931</v>
+        <v>-0.0005282620179608642</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01923076923076931</v>
+        <v>-0.02773375594294772</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03846153846153848</v>
+        <v>-0.02931854199683043</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03846153846153848</v>
+        <v>-0.0270734284204965</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01923076923076931</v>
+        <v>-0.004490227152667632</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01923076923076931</v>
+        <v>-0.004622292657157877</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01923076923076931</v>
+        <v>0.001848917062863196</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01923076923076931</v>
+        <v>0.007131537242472297</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03846153846153848</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.09615384615384615</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.09615384615384615</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.1153846153846153</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.05769230769230767</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.03846153846153836</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.01923076923076918</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.01923076923076918</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.01923076923076918</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-0.01923076923076918</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.03846153846153848</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.01923076923076931</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.01923076923076931</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.03846153846153848</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.01923076923076931</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.01923076923076931</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.01923076923076931</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.01923076923076931</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.01923076923076931</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.03846153846153848</v>
+        <v>-0.004490227152667632</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.01360274696249337</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.003169572107765414</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.003961965134706768</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.02020602218700469</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.004886423666138366</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.005546751188589475</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.002113048071843571</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.002377179080824175</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.013338615953513</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.008055995773903896</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.02588483888008452</v>
       </c>
     </row>
   </sheetData>

--- a/Bot_screening/constraints.xlsx
+++ b/Bot_screening/constraints.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,444 +441,18 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1d</t>
+          <t>3d</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2d</t>
+          <t>7d</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3d</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>4d</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>5d</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>6d</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>7d</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>8d</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>9d</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>10d</t>
         </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>11d</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>12d</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>13d</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>14d</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>15d</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>16d</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>17d</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>18d</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>19d</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>20d</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>21d</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>22d</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>23d</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>24d</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>25d</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>26d</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>27d</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>28d</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>29d</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>30d</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>uniswap</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.02950819672131148</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.01967213114754111</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07213114754098358</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.05245901639344266</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.07213114754098358</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.06557377049180328</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.09508196721311477</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.03606557377049179</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.04918032786885259</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0557377049180329</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.01967213114754111</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.01639344262295086</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.02295081967213117</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-0.01311475409836062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.003278688524590244</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.003278688524590244</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-0.01311475409836062</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-0.01967213114754093</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.01639344262295086</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-0.0426229508196721</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-0.06229508196721303</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-0.0426229508196721</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-0.00655737704918031</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.02295081967213117</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.03934426229508203</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.02295081967213117</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.02295081967213117</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.08524590163934438</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.1049180327868853</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.1081967213114754</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>binancecoin</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.005299978800084829</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.01243728358419905</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.01173061974418778</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.01038795844816618</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.005158646032082549</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.007278637552116505</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.009398629072150338</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0004239983040067177</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03038654512048617</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.02869055190445905</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.02211857819235395</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.02812522083245006</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-0.03674651968058792</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-0.02635856123242174</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-0.0168892657762702</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.01540527171224657</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.01010529291216174</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-0.01286128188820577</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-0.01264928273620241</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-0.006713306480107384</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0004239983040067177</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-0.002685322592042954</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.01660660024026564</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.0265705603844251</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.04996113348879933</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.03335453324853369</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.03073987704049181</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.01540527171224644</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.02028125220832443</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.03695851883259128</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>monero</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.001848917062863196</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01703645007923939</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01347068145800324</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02892234548335981</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.03790279978869519</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.05309033280507137</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.05520338087691506</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.03935552033808776</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.04146856840993145</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.04239302694136304</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-0.0005282620179608642</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.02773375594294772</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-0.02931854199683043</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-0.0270734284204965</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-0.004490227152667632</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-0.004622292657157877</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.001848917062863196</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.007131537242472297</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-0.004490227152667632</v>
-      </c>
-      <c r="U4" t="n">
-        <v>-0.01360274696249337</v>
-      </c>
-      <c r="V4" t="n">
-        <v>-0.003169572107765414</v>
-      </c>
-      <c r="W4" t="n">
-        <v>-0.003961965134706768</v>
-      </c>
-      <c r="X4" t="n">
-        <v>-0.02020602218700469</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>-0.004886423666138366</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>-0.005546751188589475</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>-0.002113048071843571</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.002377179080824175</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.013338615953513</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.008055995773903896</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.02588483888008452</v>
       </c>
     </row>
   </sheetData>
